--- a/biology/Zoologie/Cheliferidae/Cheliferidae.xlsx
+++ b/biology/Zoologie/Cheliferidae/Cheliferidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheliferidae sont une famille de pseudoscorpions. 
 Elle comporte plus de 300 espèces dans 59 genres actuels.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Asie, en Afrique, en Europe et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Asie, en Afrique, en Europe et en Océanie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Cheliferinae Risso, 1827
 Cheliferini Risso, 1827
 Aporochelifer Beier, 1953
@@ -643,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Risso, 1827 : Animaux articulés: description de quelques Myriapodes, Scorpionides, Arachnides et Acarides, habitant les Alpes Maritimes. Histoire naturelle des principales productions de l'Europe méridionale et principalement de celles des environs de Nice et des Alpes Maritimes, Levrault, Paris, p. 147-186.</t>
         </is>
